--- a/features/NG理由リスト.xlsx
+++ b/features/NG理由リスト.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\Tech0\NekohineRepository\features\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799AA7F5-3ADD-4F3E-AF72-ABBD73FCA712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-83" yWindow="1238" windowWidth="14566" windowHeight="10102" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="シート1" sheetId="1" r:id="rId4"/>
+    <sheet name="シート1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>NG理由（というか警告文）</t>
   </si>
@@ -22,68 +31,203 @@
     <t>関連法令・規定</t>
   </si>
   <si>
+    <t>景表法</t>
+  </si>
+  <si>
+    <t>根拠となる実験データなどを示す必要があります</t>
+  </si>
+  <si>
+    <t>著し/劇的/絶大/顕著/効果的/向上/付与/高機能/高性能 （AND 短縮/低減/消臭）</t>
+  </si>
+  <si>
+    <t>※AND検索できた方が確実だけど、モックではひとまず「著し/劇的/絶大/顕著/効果的/向上/付与/高機能/高性能」だけでもOK</t>
+  </si>
+  <si>
+    <t>言い回しが妥当性であるか、確認が必要です</t>
+  </si>
+  <si>
+    <t>一般的/一般流通</t>
+  </si>
+  <si>
+    <t>具体的に効果のあるウイルス名・菌名は記載できません</t>
+  </si>
+  <si>
+    <t>薬機法</t>
+  </si>
+  <si>
+    <t>ノベルティやキャンペーンの景品は、金額に決まりがあります</t>
+  </si>
+  <si>
+    <t>ノベルティ/景品/プレゼント</t>
+  </si>
+  <si>
+    <t>製品比較の際に、具体的な社名の記載は避けてください</t>
+  </si>
+  <si>
+    <t>競合企業名</t>
+  </si>
+  <si>
+    <t>不競法</t>
+  </si>
+  <si>
     <t>根拠となる調査結果を示す必要があります</t>
-  </si>
-  <si>
-    <t>業界初/業界No.1/市場満足度/顧客満足度</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>業界初</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>業界</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No.1/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>市場満足度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>顧客満足度</t>
+    </r>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>景表法</t>
-  </si>
-  <si>
-    <t>根拠となる実験データなどを示す必要があります</t>
-  </si>
-  <si>
-    <t>著し/劇的/絶大/顕著/効果的/向上/付与/高機能/高性能 （AND 短縮/低減/消臭）</t>
-  </si>
-  <si>
-    <t>※AND検索できた方が確実だけど、モックではひとまず「著し/劇的/絶大/顕著/効果的/向上/付与/高機能/高性能」だけでもOK</t>
-  </si>
-  <si>
-    <t>言い回しが妥当性であるか、確認が必要です</t>
-  </si>
-  <si>
-    <t>一般的/一般流通</t>
-  </si>
-  <si>
-    <t>具体的に効果のあるウイルス名・菌名は記載できません</t>
-  </si>
-  <si>
-    <t>インフルエンザウイルス/コロナウイルス</t>
-  </si>
-  <si>
-    <t>薬機法</t>
-  </si>
-  <si>
-    <t>ノベルティやキャンペーンの景品は、金額に決まりがあります</t>
-  </si>
-  <si>
-    <t>ノベルティ/景品/プレゼント</t>
-  </si>
-  <si>
-    <t>製品比較の際に、具体的な社名の記載は避けてください</t>
-  </si>
-  <si>
-    <t>競合企業名</t>
-  </si>
-  <si>
-    <t>不競法</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>インフルエンザウイルス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>コロナウイルス</t>
+    </r>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -92,36 +236,45 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -311,27 +464,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="49.38"/>
-    <col customWidth="1" min="2" max="2" width="58.38"/>
+    <col min="1" max="1" width="49.3984375" customWidth="1"/>
+    <col min="2" max="2" width="58.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -342,76 +498,77 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/features/NG理由リスト.xlsx
+++ b/features/NG理由リスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\Tech0\NekohineRepository\features\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799AA7F5-3ADD-4F3E-AF72-ABBD73FCA712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12429247-24FD-4052-867A-F5E957314F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="1238" windowWidth="14566" windowHeight="10102" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -22,25 +22,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
-    <t>NG理由（というか警告文）</t>
-  </si>
-  <si>
-    <t>想定ワード</t>
-  </si>
-  <si>
-    <t>関連法令・規定</t>
-  </si>
-  <si>
     <t>景表法</t>
   </si>
   <si>
     <t>根拠となる実験データなどを示す必要があります</t>
-  </si>
-  <si>
-    <t>著し/劇的/絶大/顕著/効果的/向上/付与/高機能/高性能 （AND 短縮/低減/消臭）</t>
-  </si>
-  <si>
-    <t>※AND検索できた方が確実だけど、モックではひとまず「著し/劇的/絶大/顕著/効果的/向上/付与/高機能/高性能」だけでもOK</t>
   </si>
   <si>
     <t>言い回しが妥当性であるか、確認が必要です</t>
@@ -181,6 +166,482 @@
       </rPr>
       <t>コロナウイルス</t>
     </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>著し</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>劇的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>絶大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>顕著</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>効果的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>向上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>付与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>高機能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>高性能</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>検索できた方が確実だけど、モックではひとまず「著し</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>劇的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>絶大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>顕著</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>効果的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>向上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>付与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>高機能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>高性能」だけでも</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">AND </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>短縮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>低減</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>消臭）</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>NG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>理由（というか警告文）</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>想定ワード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>関連法令・規定</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -188,7 +649,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -230,6 +691,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -251,11 +719,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -478,93 +947,93 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.3984375" customWidth="1"/>
-    <col min="2" max="2" width="58.3984375" customWidth="1"/>
+    <col min="1" max="1" width="49.42578125" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
